--- a/测试日志/最小化功能测试.xlsx
+++ b/测试日志/最小化功能测试.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BDZNH\source\repos\XidianAutomata\测试日志\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCF284E-205A-45EA-A654-339554C18A1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C71634-4F86-4435-9322-D320347E81FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{45E89CF4-A927-4D68-ACE5-6C28F1D0977E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="10">
   <si>
     <t>DFA::min_Brzozowski()</t>
   </si>
@@ -57,6 +57,10 @@
   </si>
   <si>
     <t>中止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -258,6 +262,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>70995</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>465633</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>170635</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DF553C9-A710-480D-AC97-6CCFB9C42CBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="781050" y="2423670"/>
+          <a:ext cx="5713908" cy="4262065"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -558,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986F8847-45DD-4D50-8FA5-5AB9686C6EB3}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -569,7 +617,7 @@
     <col min="1" max="1" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>1</v>
       </c>
@@ -585,8 +633,14 @@
       <c r="F1">
         <v>5</v>
       </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -600,13 +654,19 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -620,13 +680,19 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -639,14 +705,14 @@
       <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -660,13 +726,19 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -680,13 +752,19 @@
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -700,9 +778,15 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
         <v>6</v>
       </c>
     </row>
